--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1971354.215208272</v>
+        <v>-1973917.483966662</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.8157863100504</v>
+        <v>373.8157863100503</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>356.3548364175773</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>345.7649862672527</v>
       </c>
       <c r="E11" t="n">
-        <v>161.0826565267244</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>397.9579903882813</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.1620652417591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.3118712309419</v>
+        <v>287.3118712309418</v>
       </c>
       <c r="I11" t="n">
-        <v>38.76539541076451</v>
+        <v>38.76539541076448</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>103.8791311695498</v>
       </c>
       <c r="T11" t="n">
-        <v>195.6932886436384</v>
+        <v>195.6932886436383</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>242.0897882008106</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>318.8342031167047</v>
       </c>
       <c r="W11" t="n">
-        <v>340.3229133639829</v>
+        <v>340.3229133639828</v>
       </c>
       <c r="X11" t="n">
-        <v>360.8130453250389</v>
+        <v>360.8130453250388</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.3198833026235</v>
+        <v>75.47878145704161</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.6151282964372</v>
+        <v>157.6151282964371</v>
       </c>
       <c r="C12" t="n">
-        <v>163.7904436348856</v>
+        <v>163.7904436348855</v>
       </c>
       <c r="D12" t="n">
-        <v>138.5270102112086</v>
+        <v>138.5270102112085</v>
       </c>
       <c r="E12" t="n">
-        <v>148.7270251019708</v>
+        <v>148.7270251019707</v>
       </c>
       <c r="F12" t="n">
         <v>136.1511570399537</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1661625775661</v>
+        <v>126.166162577566</v>
       </c>
       <c r="H12" t="n">
-        <v>81.4973147193114</v>
+        <v>81.4973147193113</v>
       </c>
       <c r="I12" t="n">
-        <v>12.81704844971416</v>
+        <v>12.81704844971409</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.799623432741</v>
+        <v>120.7996234327409</v>
       </c>
       <c r="T12" t="n">
-        <v>182.140111962422</v>
+        <v>182.1401119624219</v>
       </c>
       <c r="U12" t="n">
         <v>216.8746886201621</v>
       </c>
       <c r="V12" t="n">
-        <v>223.8825317959951</v>
+        <v>223.882531795995</v>
       </c>
       <c r="W12" t="n">
-        <v>242.7769278074895</v>
+        <v>242.7769278074894</v>
       </c>
       <c r="X12" t="n">
         <v>196.8549298500473</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.7646404238742</v>
+        <v>196.7646404238741</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170.9139248285072</v>
+        <v>170.9139248285071</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>91.4328810837804</v>
       </c>
       <c r="D13" t="n">
-        <v>139.6974176647822</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>137.515907293139</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.5029926695011</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.1788034235202</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.4686632565976</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.79846463911636</v>
+        <v>89.57104790446385</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>83.20878696791242</v>
       </c>
       <c r="S13" t="n">
-        <v>182.0891867312534</v>
+        <v>182.0891867312533</v>
       </c>
       <c r="T13" t="n">
-        <v>210.934473408406</v>
+        <v>210.9344734084059</v>
       </c>
       <c r="U13" t="n">
-        <v>277.2976583349785</v>
+        <v>277.2976583349783</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>243.2195879703978</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>277.6049429831608</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>216.7916000356069</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.6665979986647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7929342782635</v>
+        <v>357.7929342782634</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>299.4281400004693</v>
       </c>
       <c r="D14" t="n">
-        <v>299.1330987888712</v>
+        <v>329.7421342354658</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9894626870447</v>
+        <v>356.9894626870446</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9351383564943</v>
+        <v>381.9351383564942</v>
       </c>
       <c r="G14" t="n">
-        <v>385.9808182682364</v>
+        <v>385.9808182682362</v>
       </c>
       <c r="H14" t="n">
-        <v>269.6668570021034</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.63602238770892</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.24685440295879</v>
+        <v>84.24685440295865</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9770627544031</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.0542645736849</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>324.3000613321959</v>
+        <v>324.3000613321958</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7901932932519</v>
+        <v>344.7901932932518</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2970312708364</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1701,7 +1701,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.8910727967202</v>
+        <v>154.8910727967201</v>
       </c>
       <c r="C16" t="n">
-        <v>142.3059137134108</v>
+        <v>142.3059137134106</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4930552613521</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4801406377142</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.0849008738112</v>
+        <v>52.83052312343763</v>
       </c>
       <c r="H16" t="n">
-        <v>113.5518107498126</v>
+        <v>119.8141075291036</v>
       </c>
       <c r="I16" t="n">
-        <v>71.41151302462106</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.99124528483028</v>
+        <v>63.99124528483014</v>
       </c>
       <c r="S16" t="n">
-        <v>164.8281179462248</v>
+        <v>164.8281179462247</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>194.608041890952</v>
       </c>
       <c r="U16" t="n">
-        <v>261.2709308203958</v>
+        <v>261.2709308203957</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1967359386109</v>
+        <v>227.1967359386108</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5820909513739</v>
+        <v>261.5820909513738</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.76874800382</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6437459668777</v>
+        <v>193.6437459668776</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621592</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333703</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U19" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893069</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621592</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333703</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2451,7 +2451,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621592</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333704</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>55.98835003964602</v>
       </c>
       <c r="I28" t="n">
-        <v>7.585755535163351</v>
+        <v>7.585755535163358</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>36.44394894528803</v>
+        <v>36.44394894528808</v>
       </c>
       <c r="T29" t="n">
         <v>131.1741572967324</v>
@@ -2858,7 +2858,7 @@
         <v>296.9872878355812</v>
       </c>
       <c r="Y29" t="n">
-        <v>313.4941258131658</v>
+        <v>313.4941258131659</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,25 +2950,25 @@
         <v>107.0881673390495</v>
       </c>
       <c r="C31" t="n">
-        <v>94.50300825574003</v>
+        <v>94.50300825574007</v>
       </c>
       <c r="D31" t="n">
-        <v>75.87166017532455</v>
+        <v>75.87166017532459</v>
       </c>
       <c r="E31" t="n">
-        <v>73.69014980368136</v>
+        <v>73.69014980368141</v>
       </c>
       <c r="F31" t="n">
-        <v>72.67723518004344</v>
+        <v>72.67723518004348</v>
       </c>
       <c r="G31" t="n">
-        <v>93.28199541614042</v>
+        <v>93.28199541614046</v>
       </c>
       <c r="H31" t="n">
-        <v>72.01120207143298</v>
+        <v>72.01120207143302</v>
       </c>
       <c r="I31" t="n">
-        <v>23.6086075669503</v>
+        <v>23.60860756695035</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.18833982715954</v>
+        <v>16.18833982715958</v>
       </c>
       <c r="S31" t="n">
         <v>117.0252124885541</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.9900288205927</v>
+        <v>309.9900288205929</v>
       </c>
       <c r="C32" t="n">
-        <v>292.5290789281197</v>
+        <v>292.5290789281199</v>
       </c>
       <c r="D32" t="n">
-        <v>281.9392287777951</v>
+        <v>281.9392287777953</v>
       </c>
       <c r="E32" t="n">
-        <v>309.1865572293739</v>
+        <v>309.1865572293741</v>
       </c>
       <c r="F32" t="n">
-        <v>334.1322328988235</v>
+        <v>334.1322328988238</v>
       </c>
       <c r="G32" t="n">
-        <v>338.1779128105655</v>
+        <v>338.1779128105658</v>
       </c>
       <c r="H32" t="n">
-        <v>221.8639515444326</v>
+        <v>221.8639515444328</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>36.44394894528796</v>
+        <v>36.44394894528816</v>
       </c>
       <c r="T32" t="n">
-        <v>131.1741572967323</v>
+        <v>131.1741572967325</v>
       </c>
       <c r="U32" t="n">
-        <v>178.2513591160141</v>
+        <v>178.2513591160143</v>
       </c>
       <c r="V32" t="n">
-        <v>255.008445627247</v>
+        <v>255.0084456272472</v>
       </c>
       <c r="W32" t="n">
-        <v>276.4971558745251</v>
+        <v>276.4971558745253</v>
       </c>
       <c r="X32" t="n">
-        <v>296.9872878355811</v>
+        <v>296.9872878355814</v>
       </c>
       <c r="Y32" t="n">
-        <v>313.4941258131657</v>
+        <v>313.4941258131659</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657072</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.0881673390494</v>
+        <v>107.0881673390496</v>
       </c>
       <c r="C34" t="n">
-        <v>94.50300825573996</v>
+        <v>94.50300825574014</v>
       </c>
       <c r="D34" t="n">
-        <v>75.87166017532448</v>
+        <v>75.87166017532466</v>
       </c>
       <c r="E34" t="n">
-        <v>73.69014980368129</v>
+        <v>73.69014980368148</v>
       </c>
       <c r="F34" t="n">
-        <v>72.67723518004337</v>
+        <v>72.67723518004355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.28199541614035</v>
+        <v>93.28199541614053</v>
       </c>
       <c r="H34" t="n">
-        <v>72.0112020714329</v>
+        <v>72.01120207143309</v>
       </c>
       <c r="I34" t="n">
-        <v>23.60860756695022</v>
+        <v>23.60860756695042</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.18833982715945</v>
+        <v>16.18833982715965</v>
       </c>
       <c r="S34" t="n">
-        <v>117.025212488554</v>
+        <v>117.0252124885542</v>
       </c>
       <c r="T34" t="n">
-        <v>146.8051364332813</v>
+        <v>146.8051364332815</v>
       </c>
       <c r="U34" t="n">
-        <v>213.468025362725</v>
+        <v>213.4680253627252</v>
       </c>
       <c r="V34" t="n">
-        <v>179.3938304809401</v>
+        <v>179.3938304809403</v>
       </c>
       <c r="W34" t="n">
-        <v>213.7791854937031</v>
+        <v>213.7791854937033</v>
       </c>
       <c r="X34" t="n">
-        <v>152.9658425461493</v>
+        <v>152.9658425461495</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.8408405092069</v>
+        <v>145.8408405092071</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.012949724099599e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3354,10 +3354,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851116</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.9983213925779</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957229</v>
@@ -4198,7 +4198,7 @@
         <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239897</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1362.932240528519</v>
+        <v>1101.232352173029</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.932240528519</v>
+        <v>741.2779719532539</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.932240528519</v>
+        <v>392.02041006714</v>
       </c>
       <c r="E11" t="n">
-        <v>1200.222486461121</v>
+        <v>392.02041006714</v>
       </c>
       <c r="F11" t="n">
-        <v>798.2447183921495</v>
+        <v>392.02041006714</v>
       </c>
       <c r="G11" t="n">
-        <v>392.0204100671403</v>
+        <v>392.02041006714</v>
       </c>
       <c r="H11" t="n">
-        <v>101.8063987227544</v>
+        <v>101.8063987227543</v>
       </c>
       <c r="I11" t="n">
-        <v>62.64943366137611</v>
+        <v>62.64943366137607</v>
       </c>
       <c r="J11" t="n">
-        <v>238.2194276611156</v>
+        <v>238.2194276611153</v>
       </c>
       <c r="K11" t="n">
-        <v>552.0918550868375</v>
+        <v>552.0918550868373</v>
       </c>
       <c r="L11" t="n">
-        <v>978.3801176649567</v>
+        <v>978.3801176649563</v>
       </c>
       <c r="M11" t="n">
-        <v>1484.377384181949</v>
+        <v>1484.377384181948</v>
       </c>
       <c r="N11" t="n">
-        <v>2003.176023853874</v>
+        <v>2003.176023853873</v>
       </c>
       <c r="O11" t="n">
-        <v>2479.727606651221</v>
+        <v>2479.727606651219</v>
       </c>
       <c r="P11" t="n">
-        <v>2851.952356299269</v>
+        <v>2851.952356299267</v>
       </c>
       <c r="Q11" t="n">
-        <v>3083.304895008225</v>
+        <v>3083.304895008223</v>
       </c>
       <c r="R11" t="n">
-        <v>3132.471683068806</v>
+        <v>3132.471683068803</v>
       </c>
       <c r="S11" t="n">
-        <v>3027.543267746029</v>
+        <v>3027.543267746026</v>
       </c>
       <c r="T11" t="n">
-        <v>2829.8732792171</v>
+        <v>2829.873279217098</v>
       </c>
       <c r="U11" t="n">
-        <v>2829.8732792171</v>
+        <v>2585.33813962032</v>
       </c>
       <c r="V11" t="n">
-        <v>2829.8732792171</v>
+        <v>2263.283388997386</v>
       </c>
       <c r="W11" t="n">
-        <v>2486.112760667623</v>
+        <v>1919.522870447909</v>
       </c>
       <c r="X11" t="n">
-        <v>2121.65513912718</v>
+        <v>1555.065248907465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1740.523943872004</v>
+        <v>1478.824055516514</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>878.483940464013</v>
+        <v>878.4839404640119</v>
       </c>
       <c r="C12" t="n">
-        <v>713.0390479035225</v>
+        <v>713.0390479035215</v>
       </c>
       <c r="D12" t="n">
-        <v>573.1127749629077</v>
+        <v>573.1127749629068</v>
       </c>
       <c r="E12" t="n">
-        <v>422.8834566780886</v>
+        <v>422.8834566780879</v>
       </c>
       <c r="F12" t="n">
-        <v>285.3570354256101</v>
+        <v>285.3570354256095</v>
       </c>
       <c r="G12" t="n">
-        <v>157.9164671654423</v>
+        <v>157.9164671654418</v>
       </c>
       <c r="H12" t="n">
-        <v>75.59594724694597</v>
+        <v>75.59594724694587</v>
       </c>
       <c r="I12" t="n">
-        <v>62.64943366137611</v>
+        <v>62.64943366137607</v>
       </c>
       <c r="J12" t="n">
         <v>148.3998723557588</v>
       </c>
       <c r="K12" t="n">
-        <v>373.1158549383077</v>
+        <v>373.1158549383072</v>
       </c>
       <c r="L12" t="n">
-        <v>721.5967663503836</v>
+        <v>721.5967663503829</v>
       </c>
       <c r="M12" t="n">
-        <v>1147.614421357831</v>
+        <v>1147.61442135783</v>
       </c>
       <c r="N12" t="n">
-        <v>1599.316140953978</v>
+        <v>1599.316140953976</v>
       </c>
       <c r="O12" t="n">
-        <v>1990.315172091854</v>
+        <v>1990.315172091852</v>
       </c>
       <c r="P12" t="n">
-        <v>2284.793299420216</v>
+        <v>2284.793299420215</v>
       </c>
       <c r="Q12" t="n">
-        <v>2431.724932574285</v>
+        <v>2431.724932574283</v>
       </c>
       <c r="R12" t="n">
-        <v>2431.724932574285</v>
+        <v>2431.724932574283</v>
       </c>
       <c r="S12" t="n">
-        <v>2309.705110925051</v>
+        <v>2309.70511092505</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.725199851898</v>
+        <v>2125.725199851896</v>
       </c>
       <c r="U12" t="n">
-        <v>1906.65985781133</v>
+        <v>1906.659857811328</v>
       </c>
       <c r="V12" t="n">
-        <v>1680.515886300223</v>
+        <v>1680.515886300222</v>
       </c>
       <c r="W12" t="n">
-        <v>1435.286666292658</v>
+        <v>1435.286666292657</v>
       </c>
       <c r="X12" t="n">
-        <v>1236.443302807762</v>
+        <v>1236.443302807761</v>
       </c>
       <c r="Y12" t="n">
-        <v>1037.691140763445</v>
+        <v>1037.691140763443</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>862.8133214862819</v>
+        <v>245.4816851646531</v>
       </c>
       <c r="C13" t="n">
-        <v>862.8133214862819</v>
+        <v>153.125239625481</v>
       </c>
       <c r="D13" t="n">
-        <v>721.7048187945827</v>
+        <v>153.125239625481</v>
       </c>
       <c r="E13" t="n">
-        <v>582.799861932826</v>
+        <v>153.125239625481</v>
       </c>
       <c r="F13" t="n">
-        <v>444.9180511555521</v>
+        <v>153.125239625481</v>
       </c>
       <c r="G13" t="n">
-        <v>286.1515830509862</v>
+        <v>153.125239625481</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3044484483623</v>
+        <v>153.125239625481</v>
       </c>
       <c r="I13" t="n">
-        <v>62.64943366137611</v>
+        <v>62.64943366137607</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6279020072891</v>
+        <v>111.6279020072892</v>
       </c>
       <c r="K13" t="n">
-        <v>316.2717291846665</v>
+        <v>316.2717291846668</v>
       </c>
       <c r="L13" t="n">
-        <v>631.2027609021829</v>
+        <v>631.2027609021833</v>
       </c>
       <c r="M13" t="n">
-        <v>973.162564576858</v>
+        <v>973.1625645768582</v>
       </c>
       <c r="N13" t="n">
         <v>1312.635875768981</v>
       </c>
       <c r="O13" t="n">
-        <v>1610.852108415421</v>
+        <v>1610.852108415422</v>
       </c>
       <c r="P13" t="n">
-        <v>1843.781178835061</v>
+        <v>1843.781178835062</v>
       </c>
       <c r="Q13" t="n">
-        <v>1924.330332902251</v>
+        <v>1924.330332902252</v>
       </c>
       <c r="R13" t="n">
-        <v>1924.330332902251</v>
+        <v>1840.281053136684</v>
       </c>
       <c r="S13" t="n">
-        <v>1740.401861456541</v>
+        <v>1656.352581690973</v>
       </c>
       <c r="T13" t="n">
-        <v>1527.336736801585</v>
+        <v>1443.287457036018</v>
       </c>
       <c r="U13" t="n">
-        <v>1247.238092018779</v>
+        <v>1163.188812253211</v>
       </c>
       <c r="V13" t="n">
-        <v>1247.238092018779</v>
+        <v>917.5124607679609</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.238092018779</v>
+        <v>637.1034274516369</v>
       </c>
       <c r="X13" t="n">
-        <v>1247.238092018779</v>
+        <v>418.1220132742562</v>
       </c>
       <c r="Y13" t="n">
-        <v>1035.453649595885</v>
+        <v>418.1220132742562</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1794.129689654869</v>
+        <v>1838.305746278356</v>
       </c>
       <c r="C14" t="n">
-        <v>1794.129689654869</v>
+        <v>1535.853079611215</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.975044413585</v>
+        <v>1202.780216747108</v>
       </c>
       <c r="E14" t="n">
-        <v>1131.379627557985</v>
+        <v>842.1847998915076</v>
       </c>
       <c r="F14" t="n">
-        <v>745.5865585110205</v>
+        <v>456.3917308445433</v>
       </c>
       <c r="G14" t="n">
-        <v>355.7069440986605</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>83.31617945007122</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3240.507988878909</v>
       </c>
       <c r="T14" t="n">
-        <v>3059.723077005774</v>
+        <v>3240.507988878909</v>
       </c>
       <c r="U14" t="n">
-        <v>2831.385436022254</v>
+        <v>3240.507988878909</v>
       </c>
       <c r="V14" t="n">
-        <v>2831.385436022254</v>
+        <v>3240.507988878909</v>
       </c>
       <c r="W14" t="n">
-        <v>2503.809616494784</v>
+        <v>2912.932169351438</v>
       </c>
       <c r="X14" t="n">
-        <v>2155.536693976348</v>
+        <v>2564.659246833002</v>
       </c>
       <c r="Y14" t="n">
-        <v>2155.536693976348</v>
+        <v>2199.712750599834</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.0144742712964</v>
+        <v>384.6439794280941</v>
       </c>
       <c r="C16" t="n">
-        <v>640.2711270860331</v>
+        <v>240.9006322428311</v>
       </c>
       <c r="D16" t="n">
-        <v>640.2711270860331</v>
+        <v>240.9006322428311</v>
       </c>
       <c r="E16" t="n">
-        <v>517.5508692462834</v>
+        <v>240.9006322428311</v>
       </c>
       <c r="F16" t="n">
-        <v>395.8537574910167</v>
+        <v>240.9006322428311</v>
       </c>
       <c r="G16" t="n">
-        <v>253.3437566083791</v>
+        <v>187.536467471682</v>
       </c>
       <c r="H16" t="n">
-        <v>138.6449578711946</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>136.3262471904838</v>
+        <v>136.326247190484</v>
       </c>
       <c r="K16" t="n">
-        <v>365.004928450725</v>
+        <v>365.0049284507254</v>
       </c>
       <c r="L16" t="n">
-        <v>706.256225210586</v>
+        <v>706.2562252105865</v>
       </c>
       <c r="M16" t="n">
-        <v>1075.1047691215</v>
+        <v>1075.104769121501</v>
       </c>
       <c r="N16" t="n">
-        <v>1441.204644138729</v>
+        <v>1441.20464413873</v>
       </c>
       <c r="O16" t="n">
-        <v>1765.225741370507</v>
+        <v>1765.225741370509</v>
       </c>
       <c r="P16" t="n">
-        <v>2022.524740115532</v>
+        <v>2022.524740115533</v>
       </c>
       <c r="Q16" t="n">
-        <v>2124.826534579411</v>
+        <v>2124.826534579413</v>
       </c>
       <c r="R16" t="n">
-        <v>2060.188913079583</v>
+        <v>2060.188913079584</v>
       </c>
       <c r="S16" t="n">
-        <v>1893.695864649053</v>
+        <v>1893.695864649054</v>
       </c>
       <c r="T16" t="n">
-        <v>1893.695864649053</v>
+        <v>1697.122084961224</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.78583351734</v>
+        <v>1433.212053829511</v>
       </c>
       <c r="V16" t="n">
-        <v>1400.294181054096</v>
+        <v>1203.720401366267</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.069846759779</v>
+        <v>939.4960670719504</v>
       </c>
       <c r="X16" t="n">
-        <v>1136.069846759779</v>
+        <v>736.6993519165767</v>
       </c>
       <c r="Y16" t="n">
-        <v>940.4701033588926</v>
+        <v>541.0996085156902</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,28 +5531,28 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
         <v>2290.53823536262</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226752</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J19" t="n">
-        <v>155.2189959588268</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K19" t="n">
-        <v>350.237723252321</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L19" t="n">
-        <v>602.6554402005021</v>
+        <v>505.9475671746765</v>
       </c>
       <c r="M19" t="n">
-        <v>770.0879214996999</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295474</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.022980773561</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307336</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226754</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>176.3617198155308</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>274.6725740832012</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L22" t="n">
-        <v>527.0902910313823</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M22" t="n">
-        <v>770.0879214996999</v>
+        <v>866.7957945255221</v>
       </c>
       <c r="N22" t="n">
-        <v>941.3967585295474</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.022980773561</v>
+        <v>1369.438726825207</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
         <v>3313.986587710109</v>
@@ -6020,10 +6020,10 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
         <v>2565.332559049856</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6099,19 +6099,19 @@
         <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>175.0427429954466</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0614702889408</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L25" t="n">
-        <v>622.4791872371218</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M25" t="n">
-        <v>866.795794525524</v>
+        <v>886.6195415621438</v>
       </c>
       <c r="N25" t="n">
-        <v>1038.104631555371</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773561</v>
+        <v>1369.438726825207</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1767.764506142946</v>
+        <v>1767.764506142947</v>
       </c>
       <c r="C26" t="n">
-        <v>1488.465287055741</v>
+        <v>1488.465287055742</v>
       </c>
       <c r="D26" t="n">
-        <v>1219.862886302197</v>
+        <v>1219.862886302198</v>
       </c>
       <c r="E26" t="n">
-        <v>923.73793155716</v>
+        <v>923.7379315571607</v>
       </c>
       <c r="F26" t="n">
-        <v>602.4153246207593</v>
+        <v>602.41532462076</v>
       </c>
       <c r="G26" t="n">
         <v>277.0061723189627</v>
       </c>
       <c r="H26" t="n">
-        <v>69.08586978093672</v>
+        <v>69.08586978093673</v>
       </c>
       <c r="I26" t="n">
-        <v>107.3207856439215</v>
+        <v>69.08586978093673</v>
       </c>
       <c r="J26" t="n">
-        <v>296.1999166029469</v>
+        <v>257.9650007399621</v>
       </c>
       <c r="K26" t="n">
-        <v>717.8982885187213</v>
+        <v>591.7843744298085</v>
       </c>
       <c r="L26" t="n">
-        <v>1168.93250176713</v>
+        <v>1042.818587678217</v>
       </c>
       <c r="M26" t="n">
-        <v>1702.464406439054</v>
+        <v>1576.350492350141</v>
       </c>
       <c r="N26" t="n">
-        <v>2249.243223497836</v>
+        <v>2161.364225271909</v>
       </c>
       <c r="O26" t="n">
-        <v>2752.215694377173</v>
+        <v>2664.336696151246</v>
       </c>
       <c r="P26" t="n">
-        <v>3146.990060734351</v>
+        <v>3146.990060734352</v>
       </c>
       <c r="Q26" t="n">
-        <v>3395.276422490033</v>
+        <v>3395.276422490034</v>
       </c>
       <c r="R26" t="n">
         <v>3454.293489046836</v>
       </c>
       <c r="S26" t="n">
-        <v>3433.666118427138</v>
+        <v>3433.666118427139</v>
       </c>
       <c r="T26" t="n">
-        <v>3317.351668664567</v>
+        <v>3317.351668664568</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.48448979161</v>
+        <v>3153.484489791611</v>
       </c>
       <c r="V26" t="n">
-        <v>2912.084900301246</v>
+        <v>2912.084900301247</v>
       </c>
       <c r="W26" t="n">
-        <v>2648.979542884339</v>
+        <v>2648.97954288434</v>
       </c>
       <c r="X26" t="n">
-        <v>2365.177082476466</v>
+        <v>2365.177082476467</v>
       </c>
       <c r="Y26" t="n">
-        <v>2064.701048353861</v>
+        <v>2064.701048353862</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.1176078298619</v>
+        <v>944.1176078298611</v>
       </c>
       <c r="C27" t="n">
-        <v>769.6645785487349</v>
+        <v>769.6645785487341</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7301688874836</v>
+        <v>620.7301688874828</v>
       </c>
       <c r="E27" t="n">
-        <v>461.4927138820282</v>
+        <v>461.4927138820273</v>
       </c>
       <c r="F27" t="n">
-        <v>314.9581559089132</v>
+        <v>314.9581559089123</v>
       </c>
       <c r="G27" t="n">
-        <v>178.5950557415313</v>
+        <v>178.5950557415304</v>
       </c>
       <c r="H27" t="n">
-        <v>88.09316137939879</v>
+        <v>88.09316137939793</v>
       </c>
       <c r="I27" t="n">
-        <v>69.08586978093672</v>
+        <v>69.08586978093673</v>
       </c>
       <c r="J27" t="n">
         <v>162.763139271554</v>
@@ -6318,37 +6318,37 @@
         <v>1688.524867341337</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.486146759392</v>
+        <v>2099.486146759391</v>
       </c>
       <c r="P27" t="n">
-        <v>2409.985738235495</v>
+        <v>2409.985738235494</v>
       </c>
       <c r="Q27" t="n">
-        <v>2567.627295882095</v>
+        <v>2567.627295882094</v>
       </c>
       <c r="R27" t="n">
-        <v>2567.48294247461</v>
+        <v>2567.482942474609</v>
       </c>
       <c r="S27" t="n">
-        <v>2438.04505596809</v>
+        <v>2438.045055968089</v>
       </c>
       <c r="T27" t="n">
         <v>2245.402055645945</v>
       </c>
       <c r="U27" t="n">
-        <v>2017.334208780361</v>
+        <v>2017.33420878036</v>
       </c>
       <c r="V27" t="n">
-        <v>1782.182100548618</v>
+        <v>1782.182100548617</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.944743820417</v>
+        <v>1527.944743820416</v>
       </c>
       <c r="X27" t="n">
-        <v>1320.093243614884</v>
+        <v>1320.093243614883</v>
       </c>
       <c r="Y27" t="n">
-        <v>1112.33294484993</v>
+        <v>1112.332944849929</v>
       </c>
     </row>
     <row r="28">
@@ -6376,19 +6376,19 @@
         <v>133.3021380383198</v>
       </c>
       <c r="H28" t="n">
-        <v>76.74824910938455</v>
+        <v>76.74824910938446</v>
       </c>
       <c r="I28" t="n">
-        <v>69.08586978093672</v>
+        <v>69.08586978093673</v>
       </c>
       <c r="J28" t="n">
-        <v>168.7876215443041</v>
+        <v>168.7876215443039</v>
       </c>
       <c r="K28" t="n">
-        <v>354.9774740379024</v>
+        <v>354.9774740379025</v>
       </c>
       <c r="L28" t="n">
-        <v>598.5663161861876</v>
+        <v>598.5663161861878</v>
       </c>
       <c r="M28" t="n">
         <v>853.8777957113132</v>
@@ -6421,7 +6421,7 @@
         <v>1027.738922314033</v>
       </c>
       <c r="W28" t="n">
-        <v>827.9850501302793</v>
+        <v>827.9850501302795</v>
       </c>
       <c r="X28" t="n">
         <v>689.6587970854689</v>
@@ -6449,49 +6449,49 @@
         <v>976.9162283437558</v>
       </c>
       <c r="F29" t="n">
-        <v>639.4089223853481</v>
+        <v>639.408922385348</v>
       </c>
       <c r="G29" t="n">
         <v>297.8150710615432</v>
       </c>
       <c r="H29" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="I29" t="n">
-        <v>104.5652837407724</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="J29" t="n">
-        <v>365.4607894142567</v>
+        <v>334.6055751749945</v>
       </c>
       <c r="K29" t="n">
-        <v>771.296537818562</v>
+        <v>668.4249488648409</v>
       </c>
       <c r="L29" t="n">
-        <v>1294.347125781429</v>
+        <v>1119.459162113249</v>
       </c>
       <c r="M29" t="n">
-        <v>1861.658017753267</v>
+        <v>1652.991066785174</v>
       </c>
       <c r="N29" t="n">
-        <v>2480.453209526509</v>
+        <v>2271.786258558415</v>
       </c>
       <c r="O29" t="n">
-        <v>2983.425680405845</v>
+        <v>2846.775104152211</v>
       </c>
       <c r="P29" t="n">
-        <v>3378.200046763023</v>
+        <v>3313.565845223847</v>
       </c>
       <c r="Q29" t="n">
         <v>3626.486408518706</v>
       </c>
       <c r="R29" t="n">
-        <v>3685.503475075508</v>
+        <v>3685.503475075509</v>
       </c>
       <c r="S29" t="n">
-        <v>3648.691405433803</v>
+        <v>3648.691405433804</v>
       </c>
       <c r="T29" t="n">
-        <v>3516.192256649225</v>
+        <v>3516.192256649226</v>
       </c>
       <c r="U29" t="n">
         <v>3336.140378754262</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>948.7418075504355</v>
+        <v>948.7418075504345</v>
       </c>
       <c r="C30" t="n">
-        <v>774.2887782693085</v>
+        <v>774.2887782693075</v>
       </c>
       <c r="D30" t="n">
-        <v>625.3543686080573</v>
+        <v>625.3543686080562</v>
       </c>
       <c r="E30" t="n">
-        <v>466.1169136026017</v>
+        <v>466.1169136026007</v>
       </c>
       <c r="F30" t="n">
-        <v>319.5823556294866</v>
+        <v>319.5823556294857</v>
       </c>
       <c r="G30" t="n">
-        <v>183.2192554621047</v>
+        <v>183.2192554621038</v>
       </c>
       <c r="H30" t="n">
-        <v>92.71736109997224</v>
+        <v>92.71736109997134</v>
       </c>
       <c r="I30" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="J30" t="n">
-        <v>167.3873389921274</v>
+        <v>167.3873389921275</v>
       </c>
       <c r="K30" t="n">
         <v>405.6515379724746</v>
@@ -6567,22 +6567,22 @@
         <v>2572.107142195182</v>
       </c>
       <c r="S30" t="n">
-        <v>2442.669255688663</v>
+        <v>2442.669255688662</v>
       </c>
       <c r="T30" t="n">
-        <v>2250.026255366519</v>
+        <v>2250.026255366518</v>
       </c>
       <c r="U30" t="n">
         <v>2021.958408500934</v>
       </c>
       <c r="V30" t="n">
-        <v>1786.806300269192</v>
+        <v>1786.806300269191</v>
       </c>
       <c r="W30" t="n">
-        <v>1532.56894354099</v>
+        <v>1532.568943540989</v>
       </c>
       <c r="X30" t="n">
-        <v>1324.717443335457</v>
+        <v>1324.717443335456</v>
       </c>
       <c r="Y30" t="n">
         <v>1116.957144570503</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.4614416927354</v>
+        <v>584.4614416927359</v>
       </c>
       <c r="C31" t="n">
-        <v>489.0038575960284</v>
+        <v>489.0038575960287</v>
       </c>
       <c r="D31" t="n">
-        <v>412.3658170148925</v>
+        <v>412.3658170148927</v>
       </c>
       <c r="E31" t="n">
-        <v>337.9313222636991</v>
+        <v>337.9313222636994</v>
       </c>
       <c r="F31" t="n">
-        <v>264.5199735969886</v>
+        <v>264.5199735969888</v>
       </c>
       <c r="G31" t="n">
-        <v>170.2957358029074</v>
+        <v>170.2957358029075</v>
       </c>
       <c r="H31" t="n">
-        <v>97.55714785196501</v>
+        <v>97.55714785196507</v>
       </c>
       <c r="I31" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="J31" t="n">
         <v>157.5491977534085</v>
       </c>
       <c r="K31" t="n">
-        <v>327.8764267355378</v>
+        <v>338.6620084041782</v>
       </c>
       <c r="L31" t="n">
-        <v>555.6026453723539</v>
+        <v>566.3882270409943</v>
       </c>
       <c r="M31" t="n">
-        <v>849.3968844516352</v>
+        <v>982.561647355002</v>
       </c>
       <c r="N31" t="n">
-        <v>1262.821635871959</v>
+        <v>1225.886859099308</v>
       </c>
       <c r="O31" t="n">
-        <v>1634.167609506831</v>
+        <v>1435.821583031957</v>
       </c>
       <c r="P31" t="n">
-        <v>1805.134986974048</v>
+        <v>1740.445458180075</v>
       </c>
       <c r="Q31" t="n">
-        <v>1890.072129047048</v>
+        <v>1890.072129047049</v>
       </c>
       <c r="R31" t="n">
-        <v>1873.720270635776</v>
+        <v>1873.720270635777</v>
       </c>
       <c r="S31" t="n">
-        <v>1755.512985293802</v>
+        <v>1755.512985293803</v>
       </c>
       <c r="T31" t="n">
-        <v>1607.224968694528</v>
+        <v>1607.224968694529</v>
       </c>
       <c r="U31" t="n">
-        <v>1391.600700651371</v>
+        <v>1391.600700651372</v>
       </c>
       <c r="V31" t="n">
-        <v>1210.394811276684</v>
+        <v>1210.394811276685</v>
       </c>
       <c r="W31" t="n">
-        <v>994.4562400709231</v>
+        <v>994.4562400709239</v>
       </c>
       <c r="X31" t="n">
-        <v>839.9452880041056</v>
+        <v>839.9452880041063</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.6313076917753</v>
+        <v>692.6313076917759</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.496899995562</v>
+        <v>1869.496899995561</v>
       </c>
       <c r="C32" t="n">
-        <v>1574.01298188635</v>
+        <v>1574.012981886349</v>
       </c>
       <c r="D32" t="n">
-        <v>1289.2258821108</v>
+        <v>1289.225882110798</v>
       </c>
       <c r="E32" t="n">
-        <v>976.9162283437554</v>
+        <v>976.9162283437547</v>
       </c>
       <c r="F32" t="n">
-        <v>639.4089223853478</v>
+        <v>639.408922385347</v>
       </c>
       <c r="G32" t="n">
-        <v>297.8150710615431</v>
+        <v>297.8150710615433</v>
       </c>
       <c r="H32" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="I32" t="n">
-        <v>104.5652837407725</v>
+        <v>104.5652837407723</v>
       </c>
       <c r="J32" t="n">
-        <v>293.4444146997979</v>
+        <v>327.2234019997128</v>
       </c>
       <c r="K32" t="n">
-        <v>699.2801631041034</v>
+        <v>733.0591504040179</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.330751066971</v>
+        <v>1256.109738366885</v>
       </c>
       <c r="M32" t="n">
-        <v>1827.879030453355</v>
+        <v>1861.658017753268</v>
       </c>
       <c r="N32" t="n">
-        <v>2408.436834812049</v>
+        <v>2480.453209526509</v>
       </c>
       <c r="O32" t="n">
-        <v>2911.409305691386</v>
+        <v>2983.425680405846</v>
       </c>
       <c r="P32" t="n">
-        <v>3378.200046763023</v>
+        <v>3378.200046763024</v>
       </c>
       <c r="Q32" t="n">
         <v>3626.486408518706</v>
       </c>
       <c r="R32" t="n">
-        <v>3685.503475075508</v>
+        <v>3685.503475075509</v>
       </c>
       <c r="S32" t="n">
-        <v>3648.691405433804</v>
+        <v>3648.691405433803</v>
       </c>
       <c r="T32" t="n">
         <v>3516.192256649225</v>
@@ -6734,7 +6734,7 @@
         <v>3336.140378754261</v>
       </c>
       <c r="V32" t="n">
-        <v>3078.556090241891</v>
+        <v>3078.55609024189</v>
       </c>
       <c r="W32" t="n">
         <v>2799.266033802976</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>948.7418075504352</v>
+        <v>948.7418075504345</v>
       </c>
       <c r="C33" t="n">
-        <v>774.2887782693082</v>
+        <v>774.2887782693075</v>
       </c>
       <c r="D33" t="n">
-        <v>625.354368608057</v>
+        <v>625.3543686080562</v>
       </c>
       <c r="E33" t="n">
-        <v>466.1169136026015</v>
+        <v>466.1169136026007</v>
       </c>
       <c r="F33" t="n">
-        <v>319.5823556294865</v>
+        <v>319.5823556294857</v>
       </c>
       <c r="G33" t="n">
-        <v>183.219255462105</v>
+        <v>183.2192554621047</v>
       </c>
       <c r="H33" t="n">
-        <v>92.71736109997255</v>
+        <v>92.71736109997224</v>
       </c>
       <c r="I33" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="J33" t="n">
-        <v>167.3873389921278</v>
+        <v>167.3873389921275</v>
       </c>
       <c r="K33" t="n">
-        <v>405.6515379724748</v>
+        <v>405.6515379724746</v>
       </c>
       <c r="L33" t="n">
-        <v>772.3496982851402</v>
+        <v>772.3496982851398</v>
       </c>
       <c r="M33" t="n">
         <v>1219.626023507456</v>
@@ -6795,31 +6795,31 @@
         <v>2104.110346479965</v>
       </c>
       <c r="P33" t="n">
-        <v>2414.609937956068</v>
+        <v>2414.609937956067</v>
       </c>
       <c r="Q33" t="n">
-        <v>2572.251495602668</v>
+        <v>2572.251495602667</v>
       </c>
       <c r="R33" t="n">
-        <v>2572.107142195183</v>
+        <v>2572.107142195182</v>
       </c>
       <c r="S33" t="n">
-        <v>2442.669255688663</v>
+        <v>2442.669255688662</v>
       </c>
       <c r="T33" t="n">
-        <v>2250.026255366519</v>
+        <v>2250.026255366518</v>
       </c>
       <c r="U33" t="n">
         <v>2021.958408500934</v>
       </c>
       <c r="V33" t="n">
-        <v>1786.806300269192</v>
+        <v>1786.806300269191</v>
       </c>
       <c r="W33" t="n">
-        <v>1532.56894354099</v>
+        <v>1532.568943540989</v>
       </c>
       <c r="X33" t="n">
-        <v>1324.717443335457</v>
+        <v>1324.717443335456</v>
       </c>
       <c r="Y33" t="n">
         <v>1116.957144570503</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.461441692735</v>
+        <v>584.4614416927362</v>
       </c>
       <c r="C34" t="n">
-        <v>489.0038575960279</v>
+        <v>489.003857596029</v>
       </c>
       <c r="D34" t="n">
-        <v>412.3658170148921</v>
+        <v>412.365817014893</v>
       </c>
       <c r="E34" t="n">
-        <v>337.9313222636989</v>
+        <v>337.9313222636996</v>
       </c>
       <c r="F34" t="n">
-        <v>264.5199735969884</v>
+        <v>264.519973596989</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2957358029072</v>
+        <v>170.2957358029076</v>
       </c>
       <c r="H34" t="n">
-        <v>97.55714785196493</v>
+        <v>97.55714785196514</v>
       </c>
       <c r="I34" t="n">
-        <v>73.71006950151016</v>
+        <v>73.71006950151018</v>
       </c>
       <c r="J34" t="n">
-        <v>157.5491977534086</v>
+        <v>190.8490766629045</v>
       </c>
       <c r="K34" t="n">
-        <v>327.876426735538</v>
+        <v>466.8526343262396</v>
       </c>
       <c r="L34" t="n">
-        <v>555.6026453723543</v>
+        <v>807.802320135321</v>
       </c>
       <c r="M34" t="n">
-        <v>971.7760656863622</v>
+        <v>1047.251176148977</v>
       </c>
       <c r="N34" t="n">
-        <v>1262.821635871957</v>
+        <v>1290.576387893284</v>
       </c>
       <c r="O34" t="n">
-        <v>1634.16760950683</v>
+        <v>1500.511111825932</v>
       </c>
       <c r="P34" t="n">
-        <v>1805.134986974047</v>
+        <v>1805.13498697405</v>
       </c>
       <c r="Q34" t="n">
-        <v>1890.072129047047</v>
+        <v>1890.07212904705</v>
       </c>
       <c r="R34" t="n">
-        <v>1873.720270635775</v>
+        <v>1873.720270635777</v>
       </c>
       <c r="S34" t="n">
-        <v>1755.512985293801</v>
+        <v>1755.512985293803</v>
       </c>
       <c r="T34" t="n">
-        <v>1607.224968694527</v>
+        <v>1607.224968694529</v>
       </c>
       <c r="U34" t="n">
-        <v>1391.600700651371</v>
+        <v>1391.600700651372</v>
       </c>
       <c r="V34" t="n">
-        <v>1210.394811276683</v>
+        <v>1210.394811276685</v>
       </c>
       <c r="W34" t="n">
-        <v>994.4562400709226</v>
+        <v>994.4562400709242</v>
       </c>
       <c r="X34" t="n">
-        <v>839.9452880041051</v>
+        <v>839.9452880041066</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.6313076917749</v>
+        <v>692.6313076917762</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218235</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912077</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810541</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7002,16 +7002,16 @@
         <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>79.6538467897071</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572062</v>
+        <v>527.0902910313827</v>
       </c>
       <c r="M37" t="n">
-        <v>887.9385183822278</v>
+        <v>694.5227723305804</v>
       </c>
       <c r="N37" t="n">
-        <v>1155.955228437899</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.103768707685</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7196,16 +7196,16 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746126</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960651</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7296,7 +7296,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588259</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K40" t="n">
-        <v>253.5298502264962</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746773</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M40" t="n">
-        <v>770.087921499699</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.10463155537</v>
+        <v>1038.104631555368</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799382</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577964</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="41">
@@ -7400,61 +7400,61 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,46 +7494,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>155.2189959588231</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523174</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313823</v>
+        <v>505.9475671746746</v>
       </c>
       <c r="M43" t="n">
-        <v>791.230645356404</v>
+        <v>673.3800484738724</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.247355412075</v>
+        <v>941.3967585295438</v>
       </c>
       <c r="O43" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P43" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,16 +7658,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
         <v>618.1564155387305</v>
@@ -7737,40 +7737,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7801,22 +7801,22 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226771</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970713</v>
+        <v>176.3617198155312</v>
       </c>
       <c r="K46" t="n">
-        <v>253.5298502264929</v>
+        <v>350.2377232523173</v>
       </c>
       <c r="L46" t="n">
-        <v>505.9475671746742</v>
+        <v>602.6554402004986</v>
       </c>
       <c r="M46" t="n">
-        <v>770.087921499696</v>
+        <v>770.0879214996963</v>
       </c>
       <c r="N46" t="n">
-        <v>941.3967585295435</v>
+        <v>941.3967585295438</v>
       </c>
       <c r="O46" t="n">
         <v>1176.022980773557</v>
@@ -7834,22 +7834,22 @@
         <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304652</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673482</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431743</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734877</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
   </sheetData>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>10.89452693802068</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>54.89432632891373</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>114.3671385578438</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>48.20238226392789</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.09576768794559</v>
+        <v>15.09576768794558</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>356.3548364175774</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>345.7649862672528</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>211.9296581921072</v>
+        <v>373.0123147188315</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>397.9579903882812</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.162065241759</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>242.0897882008107</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>318.8342031167048</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.8411018455818</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>158.3287657451977</v>
+        <v>66.89588466141721</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.6974176647821</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>137.515907293139</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>136.502992669501</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>157.1788034235201</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.4686632565976</v>
       </c>
       <c r="I13" t="n">
-        <v>4.772583265347548</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.20878696791246</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>243.2195879703979</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>277.6049429831609</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>216.791600035607</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.6665979986646</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3319843857905</v>
+        <v>40.90384438532099</v>
       </c>
       <c r="D14" t="n">
-        <v>30.60903544659466</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>269.6668570021033</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.63602238770878</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.977062754403</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.0542645736848</v>
       </c>
       <c r="V14" t="n">
-        <v>302.8113510849178</v>
+        <v>302.8113510849177</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2970312708365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6745656329953</v>
+        <v>123.6745656329952</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.493055261352</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.480140637714</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>88.25437775037339</v>
       </c>
       <c r="H16" t="n">
-        <v>6.26229677929112</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.41151302462092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.6080418909521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7687480038201</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
         <v>143376.2423651744</v>
@@ -26326,7 +26326,7 @@
         <v>127057.7542140792</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="H2" t="n">
         <v>143682.3097262497</v>
@@ -26350,10 +26350,10 @@
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262495</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44091.39957368123</v>
+        <v>44091.39957368166</v>
       </c>
       <c r="E3" t="n">
-        <v>1043469.22849343</v>
+        <v>1043469.228493429</v>
       </c>
       <c r="F3" t="n">
-        <v>57796.8889882179</v>
+        <v>57796.88898821842</v>
       </c>
       <c r="G3" t="n">
-        <v>58195.05027431023</v>
+        <v>58195.05027431021</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8417.58901476513</v>
+        <v>8417.58901476519</v>
       </c>
       <c r="K3" t="n">
-        <v>14876.51292105682</v>
+        <v>14876.51292105685</v>
       </c>
       <c r="L3" t="n">
-        <v>58195.05027431029</v>
+        <v>58195.05027431015</v>
       </c>
       <c r="M3" t="n">
         <v>192686.860526437</v>
       </c>
       <c r="N3" t="n">
-        <v>11825.94128756898</v>
+        <v>11825.94128756915</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>449671.4022943961</v>
+        <v>449671.402294396</v>
       </c>
       <c r="E4" t="n">
-        <v>28216.38762928791</v>
+        <v>28216.38762928805</v>
       </c>
       <c r="F4" t="n">
-        <v>41073.77005693219</v>
+        <v>41073.77005693234</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657693</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657693</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="J4" t="n">
-        <v>93946.27376094172</v>
+        <v>93946.27376094177</v>
       </c>
       <c r="K4" t="n">
-        <v>94768.55088686079</v>
+        <v>94768.5508868608</v>
       </c>
       <c r="L4" t="n">
         <v>94768.55088686073</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657713</v>
+        <v>93774.13782657709</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34749.94563039167</v>
+        <v>34749.94563039168</v>
       </c>
       <c r="E5" t="n">
-        <v>71261.49748078956</v>
+        <v>71261.49748078952</v>
       </c>
       <c r="F5" t="n">
         <v>76403.09770436111</v>
@@ -26485,7 +26485,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624984</v>
@@ -26494,10 +26494,10 @@
         <v>83724.91785579483</v>
       </c>
       <c r="K5" t="n">
+        <v>85892.28449597037</v>
+      </c>
+      <c r="L5" t="n">
         <v>85892.28449597035</v>
-      </c>
-      <c r="L5" t="n">
-        <v>85892.28449597037</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="C6" t="n">
-        <v>-357870.2006562494</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="D6" t="n">
-        <v>-385136.5051332946</v>
+        <v>-385140.8775241675</v>
       </c>
       <c r="E6" t="n">
-        <v>-1023943.674666191</v>
+        <v>-1024296.229963175</v>
       </c>
       <c r="F6" t="n">
-        <v>-48216.00253543201</v>
+        <v>-48453.49618560656</v>
       </c>
       <c r="G6" t="n">
-        <v>-90805.47568088736</v>
+        <v>-90805.47568088729</v>
       </c>
       <c r="H6" t="n">
-        <v>-32610.42540657708</v>
+        <v>-32610.42540657712</v>
       </c>
       <c r="I6" t="n">
-        <v>-32610.42540657705</v>
+        <v>-32610.42540657714</v>
       </c>
       <c r="J6" t="n">
-        <v>-42406.47090525203</v>
+        <v>-42406.47090525211</v>
       </c>
       <c r="K6" t="n">
-        <v>-51855.0385776383</v>
+        <v>-51855.03857763833</v>
       </c>
       <c r="L6" t="n">
-        <v>-95173.57593089169</v>
+        <v>-95173.57593089154</v>
       </c>
       <c r="M6" t="n">
         <v>-225297.2859330142</v>
       </c>
       <c r="N6" t="n">
-        <v>-44436.36669414613</v>
+        <v>-44436.36669414633</v>
       </c>
       <c r="O6" t="n">
-        <v>-32610.42540657712</v>
+        <v>-32610.42540657739</v>
       </c>
       <c r="P6" t="n">
-        <v>-32610.42540657728</v>
+        <v>-32610.42540657747</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="F2" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J2" t="n">
         <v>88.76666487467476</v>
       </c>
       <c r="K2" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="L2" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.48374451337931</v>
+        <v>51.48374451337981</v>
       </c>
       <c r="E3" t="n">
-        <v>1050.375958836523</v>
+        <v>1050.375958836522</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>783.1179207672014</v>
+        <v>783.1179207672009</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>863.573372261709</v>
+        <v>863.5733722617091</v>
       </c>
       <c r="K4" t="n">
-        <v>921.375868768877</v>
+        <v>921.3758687688772</v>
       </c>
       <c r="L4" t="n">
-        <v>921.375868768877</v>
+        <v>921.3758687688772</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.91805535343012</v>
+        <v>8.918055353430219</v>
       </c>
       <c r="F2" t="n">
-        <v>16.02285203178694</v>
+        <v>16.02285203178699</v>
       </c>
       <c r="G2" t="n">
-        <v>72.74381284288779</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.74381284288786</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="M2" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521739</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.48374451337931</v>
+        <v>51.48374451337981</v>
       </c>
       <c r="E3" t="n">
-        <v>998.8922143231435</v>
+        <v>998.8922143231425</v>
       </c>
       <c r="F3" t="n">
-        <v>39.40074175677523</v>
+        <v>39.40074175677569</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>783.1179207672014</v>
+        <v>783.1179207672009</v>
       </c>
       <c r="F4" t="n">
-        <v>48.2835346350912</v>
+        <v>48.28353463509166</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.17191685941634</v>
+        <v>32.17191685941657</v>
       </c>
       <c r="K4" t="n">
-        <v>57.80249650716803</v>
+        <v>57.80249650716814</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.1435074006171</v>
+        <v>693.1435074006158</v>
       </c>
       <c r="N4" t="n">
-        <v>48.2835346350912</v>
+        <v>48.28353463509188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.91805535343012</v>
+        <v>8.918055353430219</v>
       </c>
       <c r="K2" t="n">
-        <v>16.02285203178694</v>
+        <v>16.02285203178699</v>
       </c>
       <c r="L2" t="n">
-        <v>72.74381284288779</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>783.1179207672014</v>
+        <v>783.1179207672009</v>
       </c>
       <c r="N4" t="n">
-        <v>48.2835346350912</v>
+        <v>48.28353463509166</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,37 +27868,37 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.3551723730631</v>
+        <v>337.355172373063</v>
       </c>
       <c r="I8" t="n">
-        <v>202.4966853076841</v>
+        <v>202.496685307684</v>
       </c>
       <c r="J8" t="n">
-        <v>163.4795991562645</v>
+        <v>163.4795991562643</v>
       </c>
       <c r="K8" t="n">
-        <v>193.7625128896287</v>
+        <v>193.7625128896285</v>
       </c>
       <c r="L8" t="n">
-        <v>203.1050239657858</v>
+        <v>203.1050239657855</v>
       </c>
       <c r="M8" t="n">
-        <v>194.0041425587907</v>
+        <v>194.0041425587903</v>
       </c>
       <c r="N8" t="n">
-        <v>192.4829199066068</v>
+        <v>192.4829199066064</v>
       </c>
       <c r="O8" t="n">
-        <v>195.2261239508178</v>
+        <v>195.2261239508175</v>
       </c>
       <c r="P8" t="n">
-        <v>201.4704758931406</v>
+        <v>201.4704758931402</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.9552769485432</v>
+        <v>199.955276948543</v>
       </c>
       <c r="R8" t="n">
-        <v>202.5844694069419</v>
+        <v>202.5844694069418</v>
       </c>
       <c r="S8" t="n">
         <v>204.3037446491654</v>
@@ -27950,31 +27950,31 @@
         <v>111.1659422985864</v>
       </c>
       <c r="I9" t="n">
-        <v>95.70966873179219</v>
+        <v>95.70966873179215</v>
       </c>
       <c r="J9" t="n">
-        <v>116.3752555292827</v>
+        <v>116.3752555292826</v>
       </c>
       <c r="K9" t="n">
-        <v>119.9595802786129</v>
+        <v>119.9595802786127</v>
       </c>
       <c r="L9" t="n">
-        <v>114.5100140050172</v>
+        <v>114.5100140050169</v>
       </c>
       <c r="M9" t="n">
-        <v>114.0753931622266</v>
+        <v>114.0753931622263</v>
       </c>
       <c r="N9" t="n">
-        <v>102.5404425937212</v>
+        <v>102.540442593721</v>
       </c>
       <c r="O9" t="n">
-        <v>116.2487096461681</v>
+        <v>116.2487096461679</v>
       </c>
       <c r="P9" t="n">
-        <v>112.8281878990141</v>
+        <v>112.8281878990139</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.8460863471782</v>
+        <v>125.8460863471781</v>
       </c>
       <c r="R9" t="n">
         <v>138.803995592913</v>
@@ -28029,34 +28029,34 @@
         <v>161.4017446036021</v>
       </c>
       <c r="I10" t="n">
-        <v>152.6585367821721</v>
+        <v>152.658536782172</v>
       </c>
       <c r="J10" t="n">
-        <v>120.4316660118461</v>
+        <v>120.431666011846</v>
       </c>
       <c r="K10" t="n">
-        <v>118.2269916970766</v>
+        <v>118.2269916970765</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0819687767825</v>
+        <v>121.0819687767823</v>
       </c>
       <c r="M10" t="n">
-        <v>124.3727641665526</v>
+        <v>124.3727641665525</v>
       </c>
       <c r="N10" t="n">
-        <v>113.4785629669756</v>
+        <v>113.4785629669754</v>
       </c>
       <c r="O10" t="n">
-        <v>125.3340915716129</v>
+        <v>125.3340915716128</v>
       </c>
       <c r="P10" t="n">
-        <v>126.4994837703608</v>
+        <v>126.4994837703607</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.7309562079256</v>
+        <v>143.7309562079255</v>
       </c>
       <c r="R10" t="n">
-        <v>173.1189880925273</v>
+        <v>173.1189880925272</v>
       </c>
       <c r="S10" t="n">
         <v>222.3986580659534</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="C11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="D11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="E11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="F11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="G11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="H11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="I11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="T11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="U11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="V11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="W11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="X11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="C12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="D12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="E12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="F12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="G12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="H12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="I12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.404767423493922</v>
+        <v>5.404767423493979</v>
       </c>
       <c r="S12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="T12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="U12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="V12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="W12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="X12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="C13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="D13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="E13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="F13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="G13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="H13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="I13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="J13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="K13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="L13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="M13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="N13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="O13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="P13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="R13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="S13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="T13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="U13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="V13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="W13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="X13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.918055353430123</v>
+        <v>8.918055353430221</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="C14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="D14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="E14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="F14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="G14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="H14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="I14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="T14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="U14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="V14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="W14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="X14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="C16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="D16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="E16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="F16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="G16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="H16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="I16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="J16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="K16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="L16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="M16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="N16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="O16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="P16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="R16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="S16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="T16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="U16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="V16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="W16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="X16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.94090738521707</v>
+        <v>24.94090738521721</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J19" t="n">
-        <v>76.32843350416141</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810487</v>
+        <v>76.32843350415959</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810487</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M22" t="n">
-        <v>76.32843350416135</v>
+        <v>77.66073332242647</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M25" t="n">
-        <v>77.66073332242877</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>77.66073332242647</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="26">
@@ -29293,28 +29293,28 @@
         <v>88.76666487467476</v>
       </c>
       <c r="I26" t="n">
-        <v>80.19805690725408</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>38.6211271343285</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>88.76666487467476</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="C29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="D29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="E29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="F29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="G29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="H29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="I29" t="n">
-        <v>72.74381284288781</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="K29" t="n">
-        <v>72.74381284288781</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>72.74381284288781</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>34.12018919183197</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>65.28707226179492</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="T29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="U29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="V29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="W29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="X29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="Y29" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="C31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="D31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="E31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="F31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="G31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="H31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="I31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="J31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="K31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="L31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="M31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="N31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="O31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="P31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="R31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="S31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="T31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="U31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="V31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="W31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="X31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.74381284288781</v>
+        <v>72.74381284288776</v>
       </c>
     </row>
     <row r="32">
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="C32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="D32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="E32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="F32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="G32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="H32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="I32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>34.1201891918335</v>
       </c>
       <c r="K32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="L32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="M32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="N32" t="n">
-        <v>34.12018919183072</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.74381284288788</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="T32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="U32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="V32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="W32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="X32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="Y32" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="C34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="D34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="E34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="F34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="G34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="H34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="I34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="J34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="K34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="L34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="M34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="N34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="O34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="P34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="R34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="S34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="T34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="U34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="V34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="W34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="X34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.74381284288788</v>
+        <v>72.74381284288769</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292496</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="36">
@@ -30074,10 +30074,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O37" t="n">
-        <v>85.08100106221809</v>
+        <v>76.32843350415754</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>76.32843350416049</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242442</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415756</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.32843350416044</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="K46" t="n">
-        <v>76.32843350415706</v>
+        <v>76.32843350415743</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2069698271894644</v>
+        <v>0.2069698271894664</v>
       </c>
       <c r="H8" t="n">
-        <v>2.119629742704103</v>
+        <v>2.119629742704124</v>
       </c>
       <c r="I8" t="n">
-        <v>7.979204262721834</v>
+        <v>7.979204262721912</v>
       </c>
       <c r="J8" t="n">
-        <v>17.56630537042182</v>
+        <v>17.56630537042199</v>
       </c>
       <c r="K8" t="n">
-        <v>26.32733815535185</v>
+        <v>26.32733815535211</v>
       </c>
       <c r="L8" t="n">
-        <v>32.66139100420143</v>
+        <v>32.66139100420175</v>
       </c>
       <c r="M8" t="n">
-        <v>36.34209066848207</v>
+        <v>36.34209066848242</v>
       </c>
       <c r="N8" t="n">
-        <v>36.93014368998413</v>
+        <v>36.9301436899845</v>
       </c>
       <c r="O8" t="n">
-        <v>34.8720874708689</v>
+        <v>34.87208747086924</v>
       </c>
       <c r="P8" t="n">
-        <v>29.76251986212899</v>
+        <v>29.76251986212928</v>
       </c>
       <c r="Q8" t="n">
-        <v>22.35041292590629</v>
+        <v>22.35041292590651</v>
       </c>
       <c r="R8" t="n">
-        <v>13.0010684071902</v>
+        <v>13.00106840719033</v>
       </c>
       <c r="S8" t="n">
-        <v>4.716324937079925</v>
+        <v>4.716324937079971</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9060104185218808</v>
+        <v>0.9060104185218897</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01655758617515715</v>
+        <v>0.01655758617515731</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1107386202740612</v>
+        <v>0.1107386202740622</v>
       </c>
       <c r="H9" t="n">
-        <v>1.069501937910012</v>
+        <v>1.069501937910022</v>
       </c>
       <c r="I9" t="n">
-        <v>3.812711268207808</v>
+        <v>3.812711268207845</v>
       </c>
       <c r="J9" t="n">
-        <v>10.462371137384</v>
+        <v>10.4623711373841</v>
       </c>
       <c r="K9" t="n">
-        <v>17.8818586957461</v>
+        <v>17.88185869574627</v>
       </c>
       <c r="L9" t="n">
-        <v>24.04436577485701</v>
+        <v>24.04436577485724</v>
       </c>
       <c r="M9" t="n">
-        <v>28.05864075979172</v>
+        <v>28.058640759792</v>
       </c>
       <c r="N9" t="n">
-        <v>28.80126948961207</v>
+        <v>28.80126948961236</v>
       </c>
       <c r="O9" t="n">
-        <v>26.3475347982763</v>
+        <v>26.34753479827655</v>
       </c>
       <c r="P9" t="n">
-        <v>21.14621951531612</v>
+        <v>21.14621951531633</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.13568773884332</v>
+        <v>14.13568773884345</v>
       </c>
       <c r="R9" t="n">
-        <v>6.875508371050922</v>
+        <v>6.87550837105099</v>
       </c>
       <c r="S9" t="n">
-        <v>2.056921302020389</v>
+        <v>2.056921302020409</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4463543510169393</v>
+        <v>0.4463543510169437</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007285435544346131</v>
+        <v>0.007285435544346202</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09283953928642169</v>
+        <v>0.09283953928642259</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8254279038374589</v>
+        <v>0.825427903837467</v>
       </c>
       <c r="I10" t="n">
-        <v>2.79193814508621</v>
+        <v>2.791938145086237</v>
       </c>
       <c r="J10" t="n">
-        <v>6.563755427550013</v>
+        <v>6.563755427550078</v>
       </c>
       <c r="K10" t="n">
-        <v>10.78626647345881</v>
+        <v>10.78626647345891</v>
       </c>
       <c r="L10" t="n">
-        <v>13.80270750445582</v>
+        <v>13.80270750445596</v>
       </c>
       <c r="M10" t="n">
-        <v>14.55301978105244</v>
+        <v>14.55301978105259</v>
       </c>
       <c r="N10" t="n">
-        <v>14.20698149825761</v>
+        <v>14.20698149825775</v>
       </c>
       <c r="O10" t="n">
-        <v>13.12244688022986</v>
+        <v>13.12244688022999</v>
       </c>
       <c r="P10" t="n">
-        <v>11.22852027878685</v>
+        <v>11.22852027878696</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.774045421520275</v>
+        <v>7.774045421520351</v>
       </c>
       <c r="R10" t="n">
-        <v>4.174403284642196</v>
+        <v>4.174403284642237</v>
       </c>
       <c r="S10" t="n">
-        <v>1.617939971018821</v>
+        <v>1.617939971018837</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3966780314965289</v>
+        <v>0.3966780314965328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005063974870168461</v>
+        <v>0.005063974870168512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.222616919945818</v>
+        <v>4.222616919945815</v>
       </c>
       <c r="H11" t="n">
-        <v>43.24487553139511</v>
+        <v>43.2448755313951</v>
       </c>
       <c r="I11" t="n">
-        <v>162.7924388062113</v>
+        <v>162.7924388062112</v>
       </c>
       <c r="J11" t="n">
-        <v>358.3893328092516</v>
+        <v>358.3893328092515</v>
       </c>
       <c r="K11" t="n">
-        <v>537.1327070305582</v>
+        <v>537.132707030558</v>
       </c>
       <c r="L11" t="n">
-        <v>666.3606195943502</v>
+        <v>666.3606195943498</v>
       </c>
       <c r="M11" t="n">
-        <v>741.4545832444365</v>
+        <v>741.4545832444362</v>
       </c>
       <c r="N11" t="n">
-        <v>753.4520935682326</v>
+        <v>753.4520935682323</v>
       </c>
       <c r="O11" t="n">
-        <v>711.4634465705213</v>
+        <v>711.4634465705211</v>
       </c>
       <c r="P11" t="n">
-        <v>607.2175913593589</v>
+        <v>607.2175913593586</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.9951229137992</v>
+        <v>455.995122913799</v>
       </c>
       <c r="R11" t="n">
-        <v>265.2489600975467</v>
+        <v>265.2489600975466</v>
       </c>
       <c r="S11" t="n">
-        <v>96.22288306326541</v>
+        <v>96.22288306326537</v>
       </c>
       <c r="T11" t="n">
-        <v>18.48450556706283</v>
+        <v>18.48450556706281</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3378093535956653</v>
+        <v>0.3378093535956652</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.259299232214408</v>
+        <v>2.259299232214407</v>
       </c>
       <c r="H12" t="n">
-        <v>21.82007416375494</v>
+        <v>21.82007416375493</v>
       </c>
       <c r="I12" t="n">
-        <v>77.78727619685571</v>
+        <v>77.78727619685569</v>
       </c>
       <c r="J12" t="n">
-        <v>213.4542314084674</v>
+        <v>213.4542314084673</v>
       </c>
       <c r="K12" t="n">
-        <v>364.8272799668327</v>
+        <v>364.8272799668325</v>
       </c>
       <c r="L12" t="n">
-        <v>490.5553003981327</v>
+        <v>490.5553003981325</v>
       </c>
       <c r="M12" t="n">
-        <v>572.4548975659048</v>
+        <v>572.4548975659046</v>
       </c>
       <c r="N12" t="n">
-        <v>587.6060753117639</v>
+        <v>587.6060753117637</v>
       </c>
       <c r="O12" t="n">
-        <v>537.5447607453289</v>
+        <v>537.5447607453286</v>
       </c>
       <c r="P12" t="n">
-        <v>431.4270612813635</v>
+        <v>431.4270612813634</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.3975651507374</v>
+        <v>288.3975651507373</v>
       </c>
       <c r="R12" t="n">
         <v>140.27473654047</v>
       </c>
       <c r="S12" t="n">
-        <v>41.96549231766671</v>
+        <v>41.96549231766669</v>
       </c>
       <c r="T12" t="n">
-        <v>9.106561378969474</v>
+        <v>9.106561378969468</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1486381073825269</v>
+        <v>0.1486381073825268</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.894120581508484</v>
+        <v>1.894120581508483</v>
       </c>
       <c r="H13" t="n">
-        <v>16.8404538974118</v>
+        <v>16.84045389741179</v>
       </c>
       <c r="I13" t="n">
-        <v>56.96137166936423</v>
+        <v>56.96137166936421</v>
       </c>
       <c r="J13" t="n">
-        <v>133.9143251126498</v>
+        <v>133.9143251126497</v>
       </c>
       <c r="K13" t="n">
-        <v>220.0623730152583</v>
+        <v>220.0623730152582</v>
       </c>
       <c r="L13" t="n">
-        <v>281.6040726362704</v>
+        <v>281.6040726362703</v>
       </c>
       <c r="M13" t="n">
-        <v>296.9120107904616</v>
+        <v>296.9120107904615</v>
       </c>
       <c r="N13" t="n">
-        <v>289.8521068048393</v>
+        <v>289.8521068048392</v>
       </c>
       <c r="O13" t="n">
-        <v>267.7253345572174</v>
+        <v>267.7253345572173</v>
       </c>
       <c r="P13" t="n">
         <v>229.0852746944441</v>
@@ -31941,13 +31941,13 @@
         <v>158.6067697843149</v>
       </c>
       <c r="R13" t="n">
-        <v>85.16654905582689</v>
+        <v>85.16654905582685</v>
       </c>
       <c r="S13" t="n">
-        <v>33.00935595228874</v>
+        <v>33.00935595228873</v>
       </c>
       <c r="T13" t="n">
-        <v>8.093060666445338</v>
+        <v>8.093060666445334</v>
       </c>
       <c r="U13" t="n">
         <v>0.103315668082281</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33038,7 +33038,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34390,7 +34390,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806949</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3434282825654</v>
+        <v>177.3434282825652</v>
       </c>
       <c r="K11" t="n">
-        <v>317.0428559855777</v>
+        <v>317.0428559855774</v>
       </c>
       <c r="L11" t="n">
-        <v>430.5942046243629</v>
+        <v>430.5942046243626</v>
       </c>
       <c r="M11" t="n">
-        <v>511.1083500171638</v>
+        <v>511.1083500171635</v>
       </c>
       <c r="N11" t="n">
-        <v>524.0390299716416</v>
+        <v>524.0390299716414</v>
       </c>
       <c r="O11" t="n">
-        <v>481.3652351488346</v>
+        <v>481.3652351488344</v>
       </c>
       <c r="P11" t="n">
-        <v>375.9845956040894</v>
+        <v>375.9845956040891</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.6894330393497</v>
+        <v>233.6894330393495</v>
       </c>
       <c r="R11" t="n">
-        <v>49.66342228341455</v>
+        <v>49.66342228341443</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.6166047418007</v>
+        <v>86.61660474180059</v>
       </c>
       <c r="K12" t="n">
-        <v>226.9858409924737</v>
+        <v>226.9858409924735</v>
       </c>
       <c r="L12" t="n">
-        <v>352.0009206182585</v>
+        <v>352.0009206182584</v>
       </c>
       <c r="M12" t="n">
-        <v>430.3208636438865</v>
+        <v>430.3208636438863</v>
       </c>
       <c r="N12" t="n">
-        <v>456.2643632284306</v>
+        <v>456.2643632284304</v>
       </c>
       <c r="O12" t="n">
-        <v>394.9485163008844</v>
+        <v>394.9485163008842</v>
       </c>
       <c r="P12" t="n">
-        <v>297.4526538670333</v>
+        <v>297.4526538670331</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.4157910647159</v>
+        <v>148.4157910647157</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.47320034940712</v>
+        <v>49.47320034940716</v>
       </c>
       <c r="K13" t="n">
         <v>206.7109365428056</v>
@@ -35574,7 +35574,7 @@
         <v>318.1121532500167</v>
       </c>
       <c r="M13" t="n">
-        <v>345.4139431057324</v>
+        <v>345.4139431057323</v>
       </c>
       <c r="N13" t="n">
         <v>342.902334537498</v>
@@ -35586,7 +35586,7 @@
         <v>235.2818893127678</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.36278188605067</v>
+        <v>81.36278188605071</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.51932399828326</v>
+        <v>70.5193239982834</v>
       </c>
       <c r="K16" t="n">
-        <v>230.9885669295366</v>
+        <v>230.9885669295367</v>
       </c>
       <c r="L16" t="n">
-        <v>344.6982795554151</v>
+        <v>344.6982795554153</v>
       </c>
       <c r="M16" t="n">
-        <v>372.5742867787009</v>
+        <v>372.574286778701</v>
       </c>
       <c r="N16" t="n">
-        <v>369.7978535527571</v>
+        <v>369.7978535527573</v>
       </c>
       <c r="O16" t="n">
-        <v>327.2940376078568</v>
+        <v>327.2940376078569</v>
       </c>
       <c r="P16" t="n">
-        <v>259.8979785303275</v>
+        <v>259.8979785303276</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.3351459231107</v>
+        <v>103.3351459231108</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266769</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2706087945043</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>233.6111041328032</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057535</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266769</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>245.4521519881995</v>
+        <v>246.7844518064646</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057535</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9886134277718</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567485</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>246.7844518064669</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>250.6999626455047</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.736000388247</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057521</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38.6211271343281</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>425.9579514300751</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36604,13 +36604,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>590.9229625472398</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>487.5286510940464</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36686,7 +36686,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>31.16688306996181</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>263.5308138116003</v>
       </c>
       <c r="K29" t="n">
-        <v>409.9350993982882</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>528.3339272352198</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>573.0413050220585</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>625.0456482557991</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>580.7968137311068</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>471.5057990622594</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>316.0813770655143</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.68598813323067</v>
+        <v>84.68598813323062</v>
       </c>
       <c r="K31" t="n">
-        <v>172.0477060425548</v>
+        <v>182.9422329805754</v>
       </c>
       <c r="L31" t="n">
         <v>230.0264834715314</v>
       </c>
       <c r="M31" t="n">
-        <v>296.7618576558397</v>
+        <v>420.3771922363716</v>
       </c>
       <c r="N31" t="n">
-        <v>417.6007590104279</v>
+        <v>245.783042165966</v>
       </c>
       <c r="O31" t="n">
-        <v>375.0969430655275</v>
+        <v>212.055276699645</v>
       </c>
       <c r="P31" t="n">
-        <v>172.6943206739571</v>
+        <v>307.7008839879982</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.79509300302998</v>
+        <v>151.1380513807814</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>31.16688306996193</v>
+        <v>31.1668830699617</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>224.907190160546</v>
       </c>
       <c r="K32" t="n">
-        <v>409.9350993982883</v>
+        <v>409.9350993982881</v>
       </c>
       <c r="L32" t="n">
-        <v>528.33392723522</v>
+        <v>528.3339272352196</v>
       </c>
       <c r="M32" t="n">
-        <v>611.6649286731147</v>
+        <v>611.6649286731142</v>
       </c>
       <c r="N32" t="n">
-        <v>586.4220246047422</v>
+        <v>625.0456482557991</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>471.5057990622597</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.68598813323077</v>
+        <v>118.3222294559539</v>
       </c>
       <c r="K34" t="n">
-        <v>172.0477060425549</v>
+        <v>278.7914723872072</v>
       </c>
       <c r="L34" t="n">
-        <v>230.0264834715316</v>
+        <v>344.3936220293751</v>
       </c>
       <c r="M34" t="n">
-        <v>420.3771922363717</v>
+        <v>241.8675313269258</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9854244298941</v>
+        <v>245.7830421659659</v>
       </c>
       <c r="O34" t="n">
-        <v>375.0969430655276</v>
+        <v>212.0552766996449</v>
       </c>
       <c r="P34" t="n">
-        <v>172.6943206739572</v>
+        <v>307.7008839879981</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.79509300303008</v>
+        <v>85.79509300302986</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266968</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>224.3924649189753</v>
+        <v>215.6398973609148</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.27060879450335</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455027</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923309</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266968</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>88.27060879450042</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
         <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.37971366430261</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266982</v>
+        <v>1.332299818266968</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>175.632326703824</v>
+        <v>175.6323267038244</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882473</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057748</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
